--- a/assignment/module2/Facebook_HLR.xlsx
+++ b/assignment/module2/Facebook_HLR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/Assigments/assignment/module2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{537BC216-7630-43CB-9C97-68DFB910D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F38B72-5FF4-40DE-ADEE-C7C732984C7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{823F6916-34CE-4648-8873-18C6829DA6EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{823F6916-34CE-4648-8873-18C6829DA6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1008,6 +1008,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8788587-B0DB-4FE0-8ABF-3499CA31B18A}">
   <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F5AFDF-A227-4AEE-A76B-271AB602AB3C}">
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
